--- a/Trading Strategy_EX/Chapter3/holiday.xlsx
+++ b/Trading Strategy_EX/Chapter3/holiday.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,189 +452,159 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-1-2</t>
+          <t>2024-2-6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-2-5</t>
+          <t>2024-2-7</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-2-6</t>
+          <t>2024-2-8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-2-7</t>
+          <t>2024-2-9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-2-8</t>
+          <t>2024-2-10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-2-9</t>
+          <t>2024-2-11</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-2-10</t>
+          <t>2024-2-12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-2-11</t>
+          <t>2024-2-13</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-2-12</t>
+          <t>2024-2-14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-2-13</t>
+          <t>2024-2-28</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-2-14</t>
+          <t>2024-4-4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-2-15</t>
+          <t>2024-4-5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-2-28</t>
+          <t>2024-5-1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-4-4</t>
+          <t>2024-6-10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-4-5</t>
+          <t>2024-9-17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>2024-5-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2024-6-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2024-9-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
         <is>
           <t>2024-10-10</t>
         </is>
